--- a/data/bike_accidents.xlsx
+++ b/data/bike_accidents.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliav\Documents\DataViz\Project\Bikes\BikeAccidentMapper\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA560AC-7FE8-4851-BC0E-4234025150E1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="407">
+  <si>
+    <t>fid</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -28,21 +37,21 @@
     <t>Vehicle Type</t>
   </si>
   <si>
+    <t>City</t>
+  </si>
+  <si>
     <t>Street</t>
   </si>
   <si>
     <t>Detailed Street</t>
   </si>
   <si>
-    <t>City</t>
+    <t>Link</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -154,6 +163,186 @@
     <t>שדרות</t>
   </si>
   <si>
+    <t>עכו</t>
+  </si>
+  <si>
+    <t>רחובות</t>
+  </si>
+  <si>
+    <t>ברכיה</t>
+  </si>
+  <si>
+    <t>מוקייבלה</t>
+  </si>
+  <si>
+    <t>נתניה</t>
+  </si>
+  <si>
+    <t>גבעת השלושה</t>
+  </si>
+  <si>
+    <t>בן חור</t>
+  </si>
+  <si>
+    <t>מחלף ראש העין מזרח</t>
+  </si>
+  <si>
+    <t>עוזי נרקיס</t>
+  </si>
+  <si>
+    <t>חניתה</t>
+  </si>
+  <si>
+    <t>צומת בית דגן</t>
+  </si>
+  <si>
+    <t>הנביאים</t>
+  </si>
+  <si>
+    <t>צומת קרית חיים</t>
+  </si>
+  <si>
+    <t>ז'בוטינסקי</t>
+  </si>
+  <si>
+    <t>לוי אשכול</t>
+  </si>
+  <si>
+    <t>גניחובסקי</t>
+  </si>
+  <si>
+    <t>בני ברית</t>
+  </si>
+  <si>
+    <t>צבי נוימן</t>
+  </si>
+  <si>
+    <t>חיים עוזר</t>
+  </si>
+  <si>
+    <t>מחלף הסירה</t>
+  </si>
+  <si>
+    <t>לוינסקי</t>
+  </si>
+  <si>
+    <t>פרויד</t>
+  </si>
+  <si>
+    <t>עודד</t>
+  </si>
+  <si>
+    <t>עזרא</t>
+  </si>
+  <si>
+    <t>מורדי הגטאות</t>
+  </si>
+  <si>
+    <t>יחזקאל</t>
+  </si>
+  <si>
+    <t>עובד בן עמי</t>
+  </si>
+  <si>
+    <t>דוד בן גוריון</t>
+  </si>
+  <si>
+    <t>יצחק בן צבי</t>
+  </si>
+  <si>
+    <t>צומת בת הדר</t>
+  </si>
+  <si>
+    <t>החשמונאים</t>
+  </si>
+  <si>
+    <t>קיבוץ גלויות</t>
+  </si>
+  <si>
+    <t>מחלף רמלה לוד</t>
+  </si>
+  <si>
+    <t>מחלף שעריה</t>
+  </si>
+  <si>
+    <t>הראה</t>
+  </si>
+  <si>
+    <t>הברון הירש</t>
+  </si>
+  <si>
+    <t>אלי כהן</t>
+  </si>
+  <si>
+    <t>הציונות</t>
+  </si>
+  <si>
+    <t>אם המושבות</t>
+  </si>
+  <si>
+    <t>יוסף קארו</t>
+  </si>
+  <si>
+    <t>שדרות רוקח</t>
+  </si>
+  <si>
+    <t>בלפור</t>
+  </si>
+  <si>
+    <t>הרב אהרונסון</t>
+  </si>
+  <si>
+    <t>כביש 60</t>
+  </si>
+  <si>
+    <t>התחייה</t>
+  </si>
+  <si>
+    <t>דוד סחרוב</t>
+  </si>
+  <si>
+    <t>רש"י</t>
+  </si>
+  <si>
+    <t>בן גוריון</t>
+  </si>
+  <si>
+    <t>בן עמי</t>
+  </si>
+  <si>
+    <t>הגר"א</t>
+  </si>
+  <si>
+    <t>שדרות דוד בן גוריון</t>
+  </si>
+  <si>
+    <t>הרצל</t>
+  </si>
+  <si>
+    <t>דרך ענתות</t>
+  </si>
+  <si>
+    <t>דרך הרכבת</t>
+  </si>
+  <si>
+    <t>לוחמי הגטו</t>
+  </si>
+  <si>
+    <t>ברנר</t>
+  </si>
+  <si>
+    <t>כצנלסון</t>
+  </si>
+  <si>
+    <t>תש"ח</t>
+  </si>
+  <si>
+    <t>רשב"י</t>
+  </si>
+  <si>
+    <t>הגיבורים</t>
+  </si>
+  <si>
     <t>כביש 5</t>
   </si>
   <si>
@@ -196,124 +385,235 @@
     <t>בלפור פינת יצחק שדה</t>
   </si>
   <si>
-    <t>בן חור</t>
-  </si>
-  <si>
-    <t>מחלף ראש העין מזרח</t>
-  </si>
-  <si>
-    <t>עוזי נרקיס</t>
-  </si>
-  <si>
-    <t>חניתה</t>
-  </si>
-  <si>
-    <t>הנביאים</t>
-  </si>
-  <si>
-    <t>צומת בית דגן</t>
-  </si>
-  <si>
-    <t>צומת קרית חיים</t>
-  </si>
-  <si>
-    <t>ז'בוטינסקי</t>
-  </si>
-  <si>
-    <t>לוי אשכול</t>
-  </si>
-  <si>
-    <t>גניחובסקי</t>
-  </si>
-  <si>
-    <t>בני ברית</t>
-  </si>
-  <si>
-    <t>צבי נוימן</t>
-  </si>
-  <si>
-    <t>חיים עוזר</t>
-  </si>
-  <si>
-    <t>מחלף הסירה</t>
-  </si>
-  <si>
-    <t>לוינסקי</t>
-  </si>
-  <si>
-    <t>פרויד</t>
-  </si>
-  <si>
-    <t>עודד</t>
-  </si>
-  <si>
-    <t>עזרא</t>
-  </si>
-  <si>
-    <t>מורדי הגטאות</t>
-  </si>
-  <si>
-    <t>יחזקאל</t>
-  </si>
-  <si>
-    <t>עובד בן עמי</t>
-  </si>
-  <si>
-    <t>דוד בן גוריון</t>
-  </si>
-  <si>
-    <t>יצחק בן צבי</t>
-  </si>
-  <si>
-    <t>צומת בת הדר</t>
-  </si>
-  <si>
-    <t>החשמונאים</t>
-  </si>
-  <si>
-    <t>קיבוץ גלויות</t>
-  </si>
-  <si>
-    <t>מחלף רמלה לוד</t>
-  </si>
-  <si>
-    <t>מחלף שעריה</t>
-  </si>
-  <si>
-    <t>הראה</t>
-  </si>
-  <si>
-    <t>הברון הירש</t>
-  </si>
-  <si>
-    <t>אלי כהן</t>
-  </si>
-  <si>
-    <t>הציונות</t>
-  </si>
-  <si>
-    <t>אם המושבות</t>
-  </si>
-  <si>
-    <t>יוסף קארו</t>
-  </si>
-  <si>
-    <t>שדרות רוקח</t>
-  </si>
-  <si>
-    <t>בלפור</t>
-  </si>
-  <si>
-    <t>הרב אהרונסון</t>
-  </si>
-  <si>
-    <t>כביש 60</t>
-  </si>
-  <si>
-    <t>התחייה</t>
-  </si>
-  <si>
-    <t>דוד סחרוב</t>
+    <t>רש"י פינת רבינו גרשום</t>
+  </si>
+  <si>
+    <t>הרצל פינת הר שומרון</t>
+  </si>
+  <si>
+    <t>בכניסה למוקייבלה</t>
+  </si>
+  <si>
+    <t>סמוך לכניסה לשועפט</t>
+  </si>
+  <si>
+    <t>כביש 483 בסמוך לכניסה</t>
+  </si>
+  <si>
+    <t>פינת קק"ל</t>
+  </si>
+  <si>
+    <t>תש"ח פינת הרצל</t>
+  </si>
+  <si>
+    <t>http://mynetpetahtikva.co.il/article/303944/3</t>
+  </si>
+  <si>
+    <t>http://mynetroshhaayin.co.il/article/304000/3</t>
+  </si>
+  <si>
+    <t>http://mynetjerusalem.co.il/article/304094/4</t>
+  </si>
+  <si>
+    <t>https://www.ynet.co.il/articles/0,7340,L-5306506,00.html</t>
+  </si>
+  <si>
+    <t>https://haipo.co.il/item/101476</t>
+  </si>
+  <si>
+    <t>http://www.kolhazman.co.il/322936</t>
+  </si>
+  <si>
+    <t>https://haipo.co.il/item/101660</t>
+  </si>
+  <si>
+    <t>https://haipo.co.il/item/101658</t>
+  </si>
+  <si>
+    <t>http://www.maariv.co.il/breaking-news/Article-652707</t>
+  </si>
+  <si>
+    <t>http://www.israelhayom.co.il/article/574219</t>
+  </si>
+  <si>
+    <t>http://www.maariv.co.il/breaking-news/Article-653251</t>
+  </si>
+  <si>
+    <t>https://www.ashdodnet.com/article/307867/7</t>
+  </si>
+  <si>
+    <t>https://www.0404.co.il/?p=211326</t>
+  </si>
+  <si>
+    <t>http://www.kolhazman.co.il/328692</t>
+  </si>
+  <si>
+    <t>http://www.local.co.il/document/52,80,154514.aspx</t>
+  </si>
+  <si>
+    <t>https://www.mivzaklive.co.il/archives/198161</t>
+  </si>
+  <si>
+    <t>https://www.mivzaklive.co.il/archives/198136</t>
+  </si>
+  <si>
+    <t>http://www.maariv.co.il/breaking-news/Article-655996</t>
+  </si>
+  <si>
+    <t>https://news.walla.co.il/item/3181323</t>
+  </si>
+  <si>
+    <t>https://www.0404.co.il/?p=223753</t>
+  </si>
+  <si>
+    <t>http://www.ch10.co.il/news/453387/</t>
+  </si>
+  <si>
+    <t>https://www.ashdodnet.com/article/311053/2</t>
+  </si>
+  <si>
+    <t>https://www.0404.co.il/?p=229151</t>
+  </si>
+  <si>
+    <t>https://www.0404.co.il/?p=229315</t>
+  </si>
+  <si>
+    <t>https://www.kan-ashkelon.co.il/news/23970</t>
+  </si>
+  <si>
+    <t>http://www.maariv.co.il/breaking-news/Article-659020</t>
+  </si>
+  <si>
+    <t>https://www.0404.co.il/?p=235202</t>
+  </si>
+  <si>
+    <t>http://www.maariv.co.il/breaking-news/Article-659201</t>
+  </si>
+  <si>
+    <t>https://www.10.tv/news/171528</t>
+  </si>
+  <si>
+    <t>http://www.maariv.co.il/breaking-news/Article-659332</t>
+  </si>
+  <si>
+    <t>http://www.kolhazman.co.il/337352</t>
+  </si>
+  <si>
+    <t>https://www.israelhayom.co.il/article/584255</t>
+  </si>
+  <si>
+    <t>http://mynetpetahtikva.co.il/article/314636/3</t>
+  </si>
+  <si>
+    <t>https://www.srugim.co.il/277599-%D7%A2%D7%A3-10-%D7%9E%D7%98%D7%A8%D7%99%D7%9D-%D7%A8%D7%95%D7%9B%D7%91-%D7%90%D7%95%D7%A4%D7%A0%D7%99%D7%99%D7%9D-%D7%A0%D7%A4%D7%A6%D7%A2-%D7%A7%D7%A9%D7%94-%D7%9E%D7%A4%D7%92%D7%99%D7%A2%D7%AA</t>
+  </si>
+  <si>
+    <t>http://www.maariv.co.il/breaking-news/Article-661125</t>
+  </si>
+  <si>
+    <t>http://mynetpetahtikva.co.il/article/315099/5</t>
+  </si>
+  <si>
+    <t>http://www.maariv.co.il/breaking-news/Article-661274</t>
+  </si>
+  <si>
+    <t>https://www.kan-ashdod.co.il/law/39565</t>
+  </si>
+  <si>
+    <t>http://mynetpetahtikva.co.il/article/315327/7</t>
+  </si>
+  <si>
+    <t>https://www.0404.co.il/?p=248103</t>
+  </si>
+  <si>
+    <t>http://www.local.co.il/document/52,76,156445.aspx</t>
+  </si>
+  <si>
+    <t>http://www.ch10.co.il/news/459401/</t>
+  </si>
+  <si>
+    <t>https://www.ynet.co.il/articles/0,7340,L-5356969,00.html</t>
+  </si>
+  <si>
+    <t>http://www.maariv.co.il/breaking-news/Article-662363</t>
+  </si>
+  <si>
+    <t>https://www.hashikma-batyam.co.il/news/6350/</t>
+  </si>
+  <si>
+    <t>https://www.0404.co.il/?p=254434</t>
+  </si>
+  <si>
+    <t>http://www.maariv.co.il/breaking-news/Article-662984</t>
+  </si>
+  <si>
+    <t>https://www.mivzaklive.co.il/archives/207999; http://www.local.co.il/document/52,93,156594.aspx</t>
+  </si>
+  <si>
+    <t>https://www.mivzaklive.co.il/archives/208169</t>
+  </si>
+  <si>
+    <t>https://www.0404.co.il/?p=258460</t>
+  </si>
+  <si>
+    <t>https://www.hashikma-rishon.co.il/news/14850</t>
+  </si>
+  <si>
+    <t>https://www.ashdodnet.com/article/318139/3</t>
+  </si>
+  <si>
+    <t>http://www.maariv.co.il/breaking-news/Article-664554</t>
+  </si>
+  <si>
+    <t>https://www.mivzaklive.co.il/archives/209958</t>
+  </si>
+  <si>
+    <t>http://mynetrehovot.co.il/article/319146/3</t>
+  </si>
+  <si>
+    <t>https://www.0404.co.il/?p=274704</t>
+  </si>
+  <si>
+    <t>https://www.ynet.co.il/articles/0,7340,L-5374987,00.html</t>
+  </si>
+  <si>
+    <t>https://www.kan-ashdod.co.il/news/41877</t>
+  </si>
+  <si>
+    <t>https://www.maariv.co.il/breaking-news/Article-667572</t>
+  </si>
+  <si>
+    <t>https://www.maariv.co.il/breaking-news/Article-668128</t>
+  </si>
+  <si>
+    <t>http://www.netanyanet.co.il/%D7%97%D7%93%D7%A9%D7%95%D7%AA-%D7%A0%D7%AA%D7%A0%D7%99%D7%94/%D7%9E%D7%91%D7%96%D7%A7%D7%99%D7%9D/5514-%D7%97%D7%95%D7%9C%D7%A5-%D7%A6%D7%A0%D7%97%D7%9F-2</t>
+  </si>
+  <si>
+    <t>https://www.mivzaklive.co.il/archives/214159</t>
+  </si>
+  <si>
+    <t>https://www.maariv.co.il/breaking-news/Article-669035</t>
+  </si>
+  <si>
+    <t>https://www.ynet.co.il/articles/0,7340,L-5389656,00.html</t>
+  </si>
+  <si>
+    <t>https://www.hashikma-batyam.co.il/criminal_law/7179/</t>
+  </si>
+  <si>
+    <t>https://www.hashikma-rishon.co.il/news/15641</t>
+  </si>
+  <si>
+    <t>https://www.maariv.co.il/breaking-news/Article-669648</t>
+  </si>
+  <si>
+    <t>https://ashdodonline.co.il/82548/%D7%99%D7%9C%D7%93-%D7%91%D7%9F-10-%D7%A0%D7%A4%D7%A6%D7%A2-%D7%91%D7%AA%D7%90%D7%95%D7%A0%D7%94/</t>
+  </si>
+  <si>
+    <t>https://haipo.co.il/item/109844</t>
+  </si>
+  <si>
+    <t>https://www.maariv.co.il/breaking-news/Article-669858</t>
   </si>
   <si>
     <t>פתח תקווה, בן חור</t>
@@ -331,12 +631,12 @@
     <t>חיפה, חניתה</t>
   </si>
   <si>
+    <t>ראשון לציון, צומת בית דגן</t>
+  </si>
+  <si>
     <t>חיפה, הנביאים</t>
   </si>
   <si>
-    <t>ראשון לציון, צומת בית דגן</t>
-  </si>
-  <si>
     <t>, צומת קרית חיים</t>
   </si>
   <si>
@@ -361,12 +661,12 @@
     <t>הרצליה, מחלף הסירה</t>
   </si>
   <si>
+    <t>בני ברק, ז'בוטינסקי</t>
+  </si>
+  <si>
     <t>פתח תקווה, ז'בוטינסקי</t>
   </si>
   <si>
-    <t>בני ברק, ז'בוטינסקי</t>
-  </si>
-  <si>
     <t>תל אביב, לוינסקי</t>
   </si>
   <si>
@@ -397,9 +697,6 @@
     <t>חיפה, יצחק בן צבי</t>
   </si>
   <si>
-    <t>שבלי, שבלי</t>
-  </si>
-  <si>
     <t>אשקלון, צומת בת הדר</t>
   </si>
   <si>
@@ -421,9 +718,6 @@
     <t>פתח תקווה, הברון הירש</t>
   </si>
   <si>
-    <t xml:space="preserve">לוד, </t>
-  </si>
-  <si>
     <t>אשקלון, אלי כהן</t>
   </si>
   <si>
@@ -436,9 +730,6 @@
     <t>אלעד, יוסף קארו</t>
   </si>
   <si>
-    <t xml:space="preserve">סח'נין, </t>
-  </si>
-  <si>
     <t>תל אביב, שדרות רוקח</t>
   </si>
   <si>
@@ -457,163 +748,55 @@
     <t>אשקלון, התחייה</t>
   </si>
   <si>
-    <t xml:space="preserve">שדרות, </t>
-  </si>
-  <si>
     <t>ראשון לציון, דוד סחרוב</t>
   </si>
   <si>
-    <t>http://mynetpetahtikva.co.il/article/303944/3</t>
-  </si>
-  <si>
-    <t>http://mynetroshhaayin.co.il/article/304000/3</t>
-  </si>
-  <si>
-    <t>http://mynetjerusalem.co.il/article/304094/4</t>
-  </si>
-  <si>
-    <t>https://www.ynet.co.il/articles/0,7340,L-5306506,00.html</t>
-  </si>
-  <si>
-    <t>https://haipo.co.il/item/101476</t>
-  </si>
-  <si>
-    <t>https://haipo.co.il/item/101660</t>
-  </si>
-  <si>
-    <t>http://www.kolhazman.co.il/322936</t>
-  </si>
-  <si>
-    <t>https://haipo.co.il/item/101658</t>
-  </si>
-  <si>
-    <t>http://www.maariv.co.il/breaking-news/Article-652707</t>
-  </si>
-  <si>
-    <t>http://www.israelhayom.co.il/article/574219</t>
-  </si>
-  <si>
-    <t>http://www.maariv.co.il/breaking-news/Article-653251</t>
-  </si>
-  <si>
-    <t>https://www.ashdodnet.com/article/307867/7</t>
-  </si>
-  <si>
-    <t>https://www.0404.co.il/?p=211326</t>
-  </si>
-  <si>
-    <t>http://www.kolhazman.co.il/328692</t>
-  </si>
-  <si>
-    <t>http://www.local.co.il/document/52,80,154514.aspx</t>
-  </si>
-  <si>
-    <t>https://www.mivzaklive.co.il/archives/198136</t>
-  </si>
-  <si>
-    <t>https://www.mivzaklive.co.il/archives/198161</t>
-  </si>
-  <si>
-    <t>http://www.maariv.co.il/breaking-news/Article-655996</t>
-  </si>
-  <si>
-    <t>https://news.walla.co.il/item/3181323</t>
-  </si>
-  <si>
-    <t>https://www.0404.co.il/?p=223753</t>
-  </si>
-  <si>
-    <t>http://www.ch10.co.il/news/453387/</t>
-  </si>
-  <si>
-    <t>https://www.ashdodnet.com/article/311053/2</t>
-  </si>
-  <si>
-    <t>https://www.0404.co.il/?p=229151</t>
-  </si>
-  <si>
-    <t>https://www.0404.co.il/?p=229315</t>
-  </si>
-  <si>
-    <t>https://www.kan-ashkelon.co.il/news/23970</t>
-  </si>
-  <si>
-    <t>http://www.maariv.co.il/breaking-news/Article-659020</t>
-  </si>
-  <si>
-    <t>https://www.0404.co.il/?p=235202</t>
-  </si>
-  <si>
-    <t>http://www.maariv.co.il/breaking-news/Article-659201</t>
-  </si>
-  <si>
-    <t>https://www.10.tv/news/171528</t>
-  </si>
-  <si>
-    <t>http://www.maariv.co.il/breaking-news/Article-659332</t>
-  </si>
-  <si>
-    <t>http://www.kolhazman.co.il/337352</t>
-  </si>
-  <si>
-    <t>https://www.israelhayom.co.il/article/584255</t>
-  </si>
-  <si>
-    <t>http://mynetpetahtikva.co.il/article/314636/3</t>
-  </si>
-  <si>
-    <t>https://www.srugim.co.il/277599-%D7%A2%D7%A3-10-%D7%9E%D7%98%D7%A8%D7%99%D7%9D-%D7%A8%D7%95%D7%9B%D7%91-%D7%90%D7%95%D7%A4%D7%A0%D7%99%D7%99%D7%9D-%D7%A0%D7%A4%D7%A6%D7%A2-%D7%A7%D7%A9%D7%94-%D7%9E%D7%A4%D7%92%D7%99%D7%A2%D7%AA</t>
-  </si>
-  <si>
-    <t>http://mynetpetahtikva.co.il/article/315099/5</t>
-  </si>
-  <si>
-    <t>http://www.maariv.co.il/breaking-news/Article-661125</t>
-  </si>
-  <si>
-    <t>http://www.maariv.co.il/breaking-news/Article-661274</t>
-  </si>
-  <si>
-    <t>https://www.kan-ashdod.co.il/law/39565</t>
-  </si>
-  <si>
-    <t>http://mynetpetahtikva.co.il/article/315327/7</t>
-  </si>
-  <si>
-    <t>https://www.0404.co.il/?p=248103</t>
-  </si>
-  <si>
-    <t>http://www.local.co.il/document/52,76,156445.aspx</t>
-  </si>
-  <si>
-    <t>http://www.ch10.co.il/news/459401/</t>
-  </si>
-  <si>
-    <t>http://www.maariv.co.il/breaking-news/Article-662363</t>
-  </si>
-  <si>
-    <t>https://www.ynet.co.il/articles/0,7340,L-5356969,00.html</t>
-  </si>
-  <si>
-    <t>https://www.hashikma-batyam.co.il/news/6350/</t>
-  </si>
-  <si>
-    <t>https://www.0404.co.il/?p=254434</t>
-  </si>
-  <si>
-    <t>http://www.maariv.co.il/breaking-news/Article-662984</t>
-  </si>
-  <si>
-    <t>https://www.mivzaklive.co.il/archives/207999; http://www.local.co.il/document/52,93,156594.aspx</t>
-  </si>
-  <si>
-    <t>https://www.mivzaklive.co.il/archives/208169</t>
-  </si>
-  <si>
-    <t>https://www.0404.co.il/?p=258460</t>
-  </si>
-  <si>
-    <t>https://www.hashikma-rishon.co.il/news/14850</t>
+    <t>רש"י, אשדוד</t>
+  </si>
+  <si>
+    <t>בן גוריון, בת ים</t>
+  </si>
+  <si>
+    <t>בן עמי, עכו</t>
+  </si>
+  <si>
+    <t>רחובות, הגר"א</t>
+  </si>
+  <si>
+    <t>שדרות דוד בן גוריון, אשקלון</t>
+  </si>
+  <si>
+    <t>הרצל, אשדוד</t>
+  </si>
+  <si>
+    <t>דרך ענתות, ירושלים</t>
+  </si>
+  <si>
+    <t>דרך הרכבת, נתניה</t>
+  </si>
+  <si>
+    <t>לוחמי הגטו, פתח תקווה</t>
+  </si>
+  <si>
+    <t>ברנר, אשדוד</t>
+  </si>
+  <si>
+    <t>כצנלסון, בת ים</t>
+  </si>
+  <si>
+    <t>תש"ח, ראשון לציון</t>
+  </si>
+  <si>
+    <t>ז'בוטינסקי, רמת גן</t>
+  </si>
+  <si>
+    <t>רשב"י, אשדוד</t>
+  </si>
+  <si>
+    <t>הגיבורים, חיפה</t>
+  </si>
+  <si>
+    <t>לוינסקי, תל אביב</t>
   </si>
   <si>
     <t>אליהו בן חור, אם המושבות החדשה, פתח תקווה, מחוז המרכז, NO, ישראל</t>
@@ -631,12 +814,12 @@
     <t>חניתה, חיפה, נוה שאנן, חיפה, מחוז חיפה, NO, ישראל</t>
   </si>
   <si>
+    <t>צומת בית דגן, השבעה, נחלת יהודה, ראשון לציון, מחוז המרכז, NO, ישראל</t>
+  </si>
+  <si>
     <t>הנביאים, חיפה, הדר הכרמל, חיפה, מחוז חיפה, NO, ישראל</t>
   </si>
   <si>
-    <t>צומת בית דגן, השבעה, נחלת יהודה, ראשון לציון, מחוז המרכז, NO, ישראל</t>
-  </si>
-  <si>
     <t>צומת קרית חיים, שדרות ההסתדרות, קרית חיים, קריית חיים מזרחית, חיפה, מחוז חיפה, NO, ישראל</t>
   </si>
   <si>
@@ -661,12 +844,12 @@
     <t>מחלף הסירה, דרך תל-אביב, הרצליה ב', הרצליה, מחוז תל אביב, NO, ישראל</t>
   </si>
   <si>
+    <t>זאב ז'בוטינסקי, תל גיבורים, בני ברק, מחוז תל אביב, NO, ישראל</t>
+  </si>
+  <si>
     <t>זאב ז'בוטינסקי, אזור התעשייה קריית אריה, פתח תקווה, מחוז המרכז, NO, ישראל</t>
   </si>
   <si>
-    <t>זאב ז'בוטינסקי, תל גיבורים, בני ברק, מחוז תל אביב, NO, ישראל</t>
-  </si>
-  <si>
     <t>לוינסקי, תל אביב - יפו, נווה שאנן, תל אביב-יפו, מחוז תל אביב, NO, ישראל</t>
   </si>
   <si>
@@ -712,12 +895,12 @@
     <t>חיבת ציון/הרא''ה, חיבת ציון, הלל, מרום נווה, רמת גן, מחוז תל אביב, NO, ישראל</t>
   </si>
   <si>
+    <t>לוד, מחוז המרכז, ישראל</t>
+  </si>
+  <si>
     <t>פינסקר / הברון הירש, פינסקר, קרול, פתח תקווה, מחוז המרכז, NO, ישראל</t>
   </si>
   <si>
-    <t>לוד, מחוז המרכז, ישראל</t>
-  </si>
-  <si>
     <t>אלי כהן, אשכולי פז, אשקלון, מחוז הדרום, NO, ישראל</t>
   </si>
   <si>
@@ -730,12 +913,12 @@
     <t>רבי יוסף קארו, אלעד, מחוז המרכז, NO, ישראל</t>
   </si>
   <si>
+    <t>שדרות רוקח, תל אביב - יפו, כוכב הצפון, תל אביב-יפו, מחוז תל אביב, NO, ישראל</t>
+  </si>
+  <si>
     <t>سخنين, מחוז הצפון, ישראל</t>
   </si>
   <si>
-    <t>שדרות רוקח, תל אביב - יפו, כוכב הצפון, תל אביב-יפו, מחוז תל אביב, NO, ישראל</t>
-  </si>
-  <si>
     <t>בלפור, בת ים, שיכון ותיקים, בת ים, מחוז תל אביב, NO, ישראל</t>
   </si>
   <si>
@@ -754,6 +937,60 @@
     <t>דוד סחרוב, אזור תעשייה חדש, נווה דקלים, ראשון לציון, מחוז המרכז, NO, ישראל</t>
   </si>
   <si>
+    <t>שדרות רש''י/מטולה, רש י, רובע ט', אשדוד, מחוז הדרום, NO, ישראל</t>
+  </si>
+  <si>
+    <t>בן גוריון, בת ים, שיכון ותיקים, בת ים, מחוז תל אביב, NO, ישראל</t>
+  </si>
+  <si>
+    <t>בן עמי, קרית וולפסון, עכו, מחוז הצפון, NO, ישראל</t>
+  </si>
+  <si>
+    <t>רחובות, מחוז המרכז, ישראל</t>
+  </si>
+  <si>
+    <t>שדרות דוד בן גוריון, אזור התעשיה הצפוני, אשקלון, מחוז הדרום, NO, ישראל</t>
+  </si>
+  <si>
+    <t>ברכיה, מחוז הדרום, ישראל</t>
+  </si>
+  <si>
+    <t>שדרות הרצל, רובע ד', אשדוד, מחוז הדרום, NO, ישראל</t>
+  </si>
+  <si>
+    <t>מוקייבלה, יהודה ושומרון</t>
+  </si>
+  <si>
+    <t>דרך שועפאט/דרך ענתות, שועפט, קרית מנחם בגין, שועפט, ירושלים, מחוז ירושלים, NO</t>
+  </si>
+  <si>
+    <t>נתניה, מחוז המרכז, ישראל</t>
+  </si>
+  <si>
+    <t>לוחמי הגטו, כפר גנים ובת גנים, פתח תקווה, מחוז המרכז, NO, ישראל</t>
+  </si>
+  <si>
+    <t>ברנר, רובע ה', אשדוד, מחוז הדרום, NO, ישראל</t>
+  </si>
+  <si>
+    <t>גבעת השלושה, מחוז המרכז, ישראל</t>
+  </si>
+  <si>
+    <t>כצנלסון, בת ים, שיכון ותיקים, בת ים, מחוז תל אביב, NO, ישראל</t>
+  </si>
+  <si>
+    <t>הרצל/שדרות תש''ח, הרצל, ראשון לציון, ראשונים, ראשון לציון, מחוז המרכז, NO, ישראל</t>
+  </si>
+  <si>
+    <t>רשבי, רובע ז', אשדוד, מחוז הדרום, NO, ישראל</t>
+  </si>
+  <si>
+    <t>הגיבורים, חיפה, עיר תחתית מזרח, חיפה, מחוז חיפה, NO, ישראל</t>
+  </si>
+  <si>
+    <t>לוינסקי, שוק לוינסקי, פלורנטין, תל אביב-יפו, מחוז תל אביב, NO, ישראל</t>
+  </si>
+  <si>
     <t>11 to 20</t>
   </si>
   <si>
@@ -793,12 +1030,12 @@
     <t>Point (35.01787883 32.78540191)</t>
   </si>
   <si>
+    <t>Point (34.820515 32.002455)</t>
+  </si>
+  <si>
     <t>Point (34.995452 32.8129956)</t>
   </si>
   <si>
-    <t>Point (34.820515 32.002455)</t>
-  </si>
-  <si>
     <t>Point (35.07712691 32.81758686)</t>
   </si>
   <si>
@@ -823,12 +1060,12 @@
     <t>Point (34.810438 32.159868)</t>
   </si>
   <si>
+    <t>Point (34.82152 32.0904386)</t>
+  </si>
+  <si>
     <t>Point (34.8469364 32.0926245)</t>
   </si>
   <si>
-    <t>Point (34.82152 32.0904386)</t>
-  </si>
-  <si>
     <t>Point (34.7790316 32.0569753)</t>
   </si>
   <si>
@@ -880,12 +1117,12 @@
     <t>Point (34.82395399 32.06592444)</t>
   </si>
   <si>
+    <t>Point (34.8884857 31.9489012)</t>
+  </si>
+  <si>
     <t>Point (34.884491 32.090754)</t>
   </si>
   <si>
-    <t>Point (34.8884857 31.9489012)</t>
-  </si>
-  <si>
     <t>Point (34.5648758 31.666406)</t>
   </si>
   <si>
@@ -898,12 +1135,12 @@
     <t>Point (34.9652485 32.0489389)</t>
   </si>
   <si>
+    <t>Point (34.7811706 32.0986296)</t>
+  </si>
+  <si>
     <t>Point (35.3023184 32.8638052)</t>
   </si>
   <si>
-    <t>Point (34.7811706 32.0986296)</t>
-  </si>
-  <si>
     <t>Point (34.74188256 32.01126345)</t>
   </si>
   <si>
@@ -925,6 +1162,66 @@
     <t>Point (34.7666658 31.9931478)</t>
   </si>
   <si>
+    <t>Point (34.66091489 31.78636527)</t>
+  </si>
+  <si>
+    <t>Point (34.7393492 32.0210655)</t>
+  </si>
+  <si>
+    <t>Point (35.083186 32.923926)</t>
+  </si>
+  <si>
+    <t>Point (34.81579246 31.90240677)</t>
+  </si>
+  <si>
+    <t>Point (34.58714285 31.66096254)</t>
+  </si>
+  <si>
+    <t>Point (34.6268196 31.6678257)</t>
+  </si>
+  <si>
+    <t>Point (34.63305395 31.77930156)</t>
+  </si>
+  <si>
+    <t>Point (35.31075105 32.51364509)</t>
+  </si>
+  <si>
+    <t>Point (35.23421706 31.80905642)</t>
+  </si>
+  <si>
+    <t>Point (35.23430524 31.80901633)</t>
+  </si>
+  <si>
+    <t>Point (35.23422507 31.80898427)</t>
+  </si>
+  <si>
+    <t>Point (34.86855449 32.32283227)</t>
+  </si>
+  <si>
+    <t>Point (34.8758262 32.0789858)</t>
+  </si>
+  <si>
+    <t>Point (34.6512315 31.7974706)</t>
+  </si>
+  <si>
+    <t>Point (34.9211962 32.1018156)</t>
+  </si>
+  <si>
+    <t>Point (34.75461331 32.02350312)</t>
+  </si>
+  <si>
+    <t>Point (34.8024105 31.95412633)</t>
+  </si>
+  <si>
+    <t>Point (34.659407 31.7905111)</t>
+  </si>
+  <si>
+    <t>Point (35.0127952 32.8006186)</t>
+  </si>
+  <si>
+    <t>Point (34.77503616 32.05873453)</t>
+  </si>
+  <si>
     <t>Serious</t>
   </si>
   <si>
@@ -941,16 +1238,19 @@
   </si>
   <si>
     <t>Minor</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2PSntVM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,16 +1322,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1073,7 +1381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1105,9 +1413,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1139,6 +1465,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1314,14 +1658,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,2622 +1713,3920 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
         <v>43286</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
-        <v>200</v>
-      </c>
-      <c r="L2">
-        <v>32.1075075</v>
+        <v>198</v>
+      </c>
+      <c r="L2" t="s">
+        <v>259</v>
       </c>
       <c r="M2">
-        <v>34.8765451</v>
-      </c>
-      <c r="N2" t="s">
-        <v>246</v>
+        <v>32.107507499999997</v>
+      </c>
+      <c r="N2">
+        <v>34.876545100000001</v>
       </c>
       <c r="O2" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="P2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>331</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
         <v>43287</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
-        <v>201</v>
-      </c>
-      <c r="L3">
-        <v>32.101811</v>
+        <v>199</v>
+      </c>
+      <c r="L3" t="s">
+        <v>260</v>
       </c>
       <c r="M3">
-        <v>34.9782898</v>
-      </c>
-      <c r="N3" t="s">
-        <v>247</v>
+        <v>32.101810999999998</v>
+      </c>
+      <c r="N3">
+        <v>34.978289799999999</v>
       </c>
       <c r="O3" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="P3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>332</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
         <v>43288</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L4">
-        <v>31.8164577</v>
+        <v>200</v>
+      </c>
+      <c r="L4" t="s">
+        <v>261</v>
       </c>
       <c r="M4">
-        <v>35.2355402</v>
-      </c>
-      <c r="N4" t="s">
-        <v>248</v>
+        <v>31.816457700000001</v>
+      </c>
+      <c r="N4">
+        <v>35.235540200000003</v>
       </c>
       <c r="O4" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="P4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>333</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
         <v>43289</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>103</v>
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L5">
-        <v>31.266409</v>
+        <v>201</v>
+      </c>
+      <c r="L5" t="s">
+        <v>262</v>
       </c>
       <c r="M5">
-        <v>35.21135</v>
-      </c>
-      <c r="N5" t="s">
-        <v>249</v>
+        <v>31.266408999999999</v>
+      </c>
+      <c r="N5">
+        <v>35.211350000000003</v>
       </c>
       <c r="O5" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="P5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>334</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
         <v>43294</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L6">
-        <v>32.7862429</v>
+        <v>202</v>
+      </c>
+      <c r="L6" t="s">
+        <v>263</v>
       </c>
       <c r="M6">
-        <v>35.0174697</v>
-      </c>
-      <c r="N6" t="s">
-        <v>249</v>
+        <v>32.786242899999998</v>
+      </c>
+      <c r="N6">
+        <v>35.017469699999999</v>
       </c>
       <c r="O6" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="P6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>335</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
         <v>43297</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>27</v>
+      <c r="G7" t="s">
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="K7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L7">
-        <v>32.8129956</v>
+        <v>203</v>
+      </c>
+      <c r="L7" t="s">
+        <v>264</v>
       </c>
       <c r="M7">
-        <v>34.995452</v>
-      </c>
-      <c r="N7" t="s">
-        <v>250</v>
+        <v>32.002454999999998</v>
+      </c>
+      <c r="N7">
+        <v>34.820515</v>
       </c>
       <c r="O7" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="P7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>336</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
         <v>43297</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
       <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="K8" t="s">
-        <v>206</v>
-      </c>
-      <c r="L8">
-        <v>32.002455</v>
+        <v>204</v>
+      </c>
+      <c r="L8" t="s">
+        <v>265</v>
       </c>
       <c r="M8">
-        <v>34.820515</v>
-      </c>
-      <c r="N8" t="s">
-        <v>250</v>
+        <v>32.812995600000001</v>
+      </c>
+      <c r="N8">
+        <v>34.995452</v>
       </c>
       <c r="O8" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="P8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>337</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
         <v>43297</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="K9" t="s">
-        <v>207</v>
-      </c>
-      <c r="L9">
+        <v>205</v>
+      </c>
+      <c r="L9" t="s">
+        <v>266</v>
+      </c>
+      <c r="M9">
         <v>32.817155</v>
       </c>
-      <c r="M9">
-        <v>35.076678</v>
-      </c>
-      <c r="N9" t="s">
-        <v>246</v>
+      <c r="N9">
+        <v>35.076678000000001</v>
       </c>
       <c r="O9" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="P9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>338</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
         <v>43304</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>63</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="K10" t="s">
-        <v>208</v>
-      </c>
-      <c r="L10">
-        <v>32.0718863</v>
+        <v>206</v>
+      </c>
+      <c r="L10" t="s">
+        <v>267</v>
       </c>
       <c r="M10">
-        <v>34.8509527</v>
-      </c>
-      <c r="N10" t="s">
-        <v>251</v>
+        <v>32.071886300000003</v>
+      </c>
+      <c r="N10">
+        <v>34.850952700000001</v>
       </c>
       <c r="O10" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="P10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>339</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
         <v>43306</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>54</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11">
-        <v>32.0637716</v>
+        <v>207</v>
+      </c>
+      <c r="L11" t="s">
+        <v>268</v>
       </c>
       <c r="M11">
-        <v>34.8616367</v>
-      </c>
-      <c r="N11" t="s">
-        <v>252</v>
+        <v>32.063771600000003</v>
+      </c>
+      <c r="N11">
+        <v>34.861636699999998</v>
       </c>
       <c r="O11" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="P11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>340</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
         <v>43307</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
         <v>110</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>210</v>
-      </c>
-      <c r="L12">
-        <v>32.0990657</v>
+        <v>208</v>
+      </c>
+      <c r="L12" t="s">
+        <v>269</v>
       </c>
       <c r="M12">
+        <v>32.099065699999997</v>
+      </c>
+      <c r="N12">
         <v>34.841524</v>
       </c>
-      <c r="N12" t="s">
-        <v>246</v>
-      </c>
       <c r="O12" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="P12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>341</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
         <v>43310</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
         <v>111</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>211</v>
-      </c>
-      <c r="L13">
-        <v>31.7911515</v>
+        <v>209</v>
+      </c>
+      <c r="L13" t="s">
+        <v>270</v>
       </c>
       <c r="M13">
-        <v>34.6489388388525</v>
-      </c>
-      <c r="N13" t="s">
-        <v>249</v>
+        <v>31.791151500000002</v>
+      </c>
+      <c r="N13">
+        <v>34.648938838852501</v>
       </c>
       <c r="O13" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="P13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>342</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>43310</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>212</v>
-      </c>
-      <c r="L14">
+        <v>210</v>
+      </c>
+      <c r="L14" t="s">
+        <v>271</v>
+      </c>
+      <c r="M14">
         <v>32</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>34</v>
       </c>
-      <c r="N14" t="s">
-        <v>253</v>
-      </c>
       <c r="O14" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="P14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>343</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
         <v>43313</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>213</v>
-      </c>
-      <c r="L15">
-        <v>32.0853546</v>
+        <v>211</v>
+      </c>
+      <c r="L15" t="s">
+        <v>272</v>
       </c>
       <c r="M15">
-        <v>34.8877248</v>
-      </c>
-      <c r="N15" t="s">
-        <v>253</v>
+        <v>32.085354600000002</v>
+      </c>
+      <c r="N15">
+        <v>34.887724800000001</v>
       </c>
       <c r="O15" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="P15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>344</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
         <v>43315</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>214</v>
-      </c>
-      <c r="L16">
-        <v>32.159868</v>
+        <v>212</v>
+      </c>
+      <c r="L16" t="s">
+        <v>273</v>
       </c>
       <c r="M16">
-        <v>34.810438</v>
-      </c>
-      <c r="N16" t="s">
-        <v>248</v>
+        <v>32.159868000000003</v>
+      </c>
+      <c r="N16">
+        <v>34.810437999999998</v>
       </c>
       <c r="O16" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="P16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>345</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
         <v>43316</v>
       </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
+      <c r="D17">
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>215</v>
-      </c>
-      <c r="L17">
-        <v>32.0926245</v>
+        <v>213</v>
+      </c>
+      <c r="L17" t="s">
+        <v>274</v>
       </c>
       <c r="M17">
-        <v>34.8469364</v>
-      </c>
-      <c r="N17" t="s">
-        <v>249</v>
+        <v>32.090438599999999</v>
+      </c>
+      <c r="N17">
+        <v>34.82152</v>
       </c>
       <c r="O17" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="P17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>346</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
         <v>43316</v>
       </c>
-      <c r="C18">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
+      <c r="D18">
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="K18" t="s">
-        <v>216</v>
-      </c>
-      <c r="L18">
-        <v>32.0904386</v>
+        <v>214</v>
+      </c>
+      <c r="L18" t="s">
+        <v>275</v>
       </c>
       <c r="M18">
-        <v>34.82152</v>
-      </c>
-      <c r="N18" t="s">
-        <v>248</v>
+        <v>32.092624499999999</v>
+      </c>
+      <c r="N18">
+        <v>34.846936399999997</v>
       </c>
       <c r="O18" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="P18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>347</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
         <v>43324</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="K19" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19">
-        <v>32.0569753</v>
+        <v>215</v>
+      </c>
+      <c r="L19" t="s">
+        <v>276</v>
       </c>
       <c r="M19">
-        <v>34.7790316</v>
-      </c>
-      <c r="N19" t="s">
-        <v>248</v>
+        <v>32.056975299999998</v>
+      </c>
+      <c r="N19">
+        <v>34.779031600000003</v>
       </c>
       <c r="O19" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="P19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>348</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2">
         <v>43327</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="K20" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20">
-        <v>32.7806039</v>
+        <v>216</v>
+      </c>
+      <c r="L20" t="s">
+        <v>277</v>
       </c>
       <c r="M20">
-        <v>34.9880739</v>
-      </c>
-      <c r="N20" t="s">
-        <v>246</v>
+        <v>32.780603900000003</v>
+      </c>
+      <c r="N20">
+        <v>34.988073900000003</v>
       </c>
       <c r="O20" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="P20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>349</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
         <v>43327</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="K21" t="s">
-        <v>219</v>
-      </c>
-      <c r="L21">
-        <v>32.0563205</v>
+        <v>217</v>
+      </c>
+      <c r="L21" t="s">
+        <v>278</v>
       </c>
       <c r="M21">
-        <v>34.8112014</v>
-      </c>
-      <c r="N21" t="s">
-        <v>253</v>
+        <v>32.056320499999998</v>
+      </c>
+      <c r="N21">
+        <v>34.811201400000002</v>
       </c>
       <c r="O21" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="P21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>350</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2">
         <v>43328</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>50</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
-      </c>
-      <c r="L22">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s">
+        <v>279</v>
+      </c>
+      <c r="M22">
         <v>32.0799235</v>
       </c>
-      <c r="M22">
-        <v>34.8388872</v>
-      </c>
-      <c r="N22" t="s">
-        <v>247</v>
+      <c r="N22">
+        <v>34.838887200000002</v>
       </c>
       <c r="O22" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="P22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>351</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
         <v>43330</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
-      </c>
-      <c r="L23">
-        <v>31.8055502</v>
+        <v>219</v>
+      </c>
+      <c r="L23" t="s">
+        <v>280</v>
       </c>
       <c r="M23">
-        <v>34.6584496</v>
-      </c>
-      <c r="N23" t="s">
-        <v>252</v>
+        <v>31.805550199999999</v>
+      </c>
+      <c r="N23">
+        <v>34.658449599999997</v>
       </c>
       <c r="O23" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="P23" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>352</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
         <v>43334</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>18</v>
       </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
-      </c>
-      <c r="L24">
+        <v>220</v>
+      </c>
+      <c r="L24" t="s">
+        <v>281</v>
+      </c>
+      <c r="M24">
         <v>31.9202081</v>
       </c>
-      <c r="M24">
-        <v>34.8665292</v>
-      </c>
-      <c r="N24" t="s">
-        <v>246</v>
+      <c r="N24">
+        <v>34.866529200000002</v>
       </c>
       <c r="O24" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="P24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>353</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
         <v>43334</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>17</v>
       </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>271</v>
+      </c>
+      <c r="M25">
         <v>32</v>
       </c>
-      <c r="G25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K25" t="s">
-        <v>212</v>
-      </c>
-      <c r="L25">
-        <v>32</v>
-      </c>
-      <c r="M25">
+      <c r="N25">
         <v>34</v>
       </c>
-      <c r="N25" t="s">
-        <v>246</v>
-      </c>
       <c r="O25" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="P25" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>354</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2">
         <v>43336</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>35</v>
       </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="K26" t="s">
-        <v>223</v>
-      </c>
-      <c r="L26">
-        <v>31.6683733</v>
+        <v>222</v>
+      </c>
+      <c r="L26" t="s">
+        <v>282</v>
       </c>
       <c r="M26">
-        <v>34.5566335</v>
-      </c>
-      <c r="N26" t="s">
-        <v>253</v>
+        <v>31.668373299999999</v>
+      </c>
+      <c r="N26">
+        <v>34.556633499999997</v>
       </c>
       <c r="O26" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="P26" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>355</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2">
         <v>43341</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="K27" t="s">
-        <v>224</v>
-      </c>
-      <c r="L27">
-        <v>31.7819355</v>
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>283</v>
       </c>
       <c r="M27">
-        <v>35.2198234</v>
-      </c>
-      <c r="N27" t="s">
-        <v>246</v>
+        <v>31.781935499999999</v>
+      </c>
+      <c r="N27">
+        <v>35.219823400000003</v>
       </c>
       <c r="O27" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="P27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>356</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2">
         <v>43342</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="K28" t="s">
-        <v>225</v>
-      </c>
-      <c r="L28">
-        <v>32.8182406</v>
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>284</v>
       </c>
       <c r="M28">
-        <v>35.069054</v>
-      </c>
-      <c r="N28" t="s">
-        <v>246</v>
+        <v>32.818240600000003</v>
+      </c>
+      <c r="N28">
+        <v>35.069054000000001</v>
       </c>
       <c r="O28" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="P28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>357</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2">
         <v>43342</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>12</v>
       </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s">
-        <v>127</v>
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="K29" t="s">
-        <v>226</v>
-      </c>
-      <c r="L29">
-        <v>32.6937221</v>
+        <v>39</v>
+      </c>
+      <c r="L29" t="s">
+        <v>285</v>
       </c>
       <c r="M29">
-        <v>35.3960008</v>
-      </c>
-      <c r="N29" t="s">
-        <v>246</v>
+        <v>32.693722100000002</v>
+      </c>
+      <c r="N29">
+        <v>35.396000800000003</v>
       </c>
       <c r="O29" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="P29" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>358</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2">
         <v>43343</v>
       </c>
-      <c r="C30">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
+      <c r="D30">
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s">
-        <v>227</v>
-      </c>
-      <c r="L30">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s">
+        <v>286</v>
+      </c>
+      <c r="M30">
         <v>31.647126</v>
       </c>
-      <c r="M30">
-        <v>34.594188</v>
-      </c>
-      <c r="N30" t="s">
-        <v>246</v>
+      <c r="N30">
+        <v>34.594188000000003</v>
       </c>
       <c r="O30" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="P30" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>359</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2">
         <v>43343</v>
       </c>
-      <c r="C31">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
+      <c r="D31">
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I31" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
-      </c>
-      <c r="L31">
-        <v>31.647126</v>
+        <v>226</v>
+      </c>
+      <c r="L31" t="s">
+        <v>287</v>
       </c>
       <c r="M31">
-        <v>34.594188</v>
-      </c>
-      <c r="N31" t="s">
-        <v>246</v>
+        <v>31.2677458</v>
+      </c>
+      <c r="N31">
+        <v>34.760559499999999</v>
       </c>
       <c r="O31" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="P31" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>360</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2">
         <v>43343</v>
       </c>
-      <c r="C32">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
+      <c r="D32">
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K32" t="s">
-        <v>228</v>
-      </c>
-      <c r="L32">
-        <v>31.2677458</v>
+        <v>225</v>
+      </c>
+      <c r="L32" t="s">
+        <v>286</v>
       </c>
       <c r="M32">
-        <v>34.7605595</v>
-      </c>
-      <c r="N32" t="s">
-        <v>246</v>
+        <v>31.647126</v>
+      </c>
+      <c r="N32">
+        <v>34.594188000000003</v>
       </c>
       <c r="O32" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="P32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>359</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2">
         <v>43345</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>42</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I33" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="K33" t="s">
-        <v>229</v>
-      </c>
-      <c r="L33">
-        <v>31.8014634</v>
+        <v>227</v>
+      </c>
+      <c r="L33" t="s">
+        <v>288</v>
       </c>
       <c r="M33">
-        <v>34.6505481</v>
-      </c>
-      <c r="N33" t="s">
-        <v>247</v>
+        <v>31.801463399999999</v>
+      </c>
+      <c r="N33">
+        <v>34.650548100000002</v>
       </c>
       <c r="O33" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="P33" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>361</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2">
         <v>43345</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>60</v>
       </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="K34" t="s">
-        <v>212</v>
-      </c>
-      <c r="L34">
+        <v>228</v>
+      </c>
+      <c r="L34" t="s">
+        <v>271</v>
+      </c>
+      <c r="M34">
         <v>32</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>34</v>
       </c>
-      <c r="N34" t="s">
-        <v>252</v>
-      </c>
       <c r="O34" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="P34" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>362</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" s="2">
         <v>43354</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>16</v>
       </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="K35" t="s">
-        <v>230</v>
-      </c>
-      <c r="L35">
-        <v>32.0672565</v>
+        <v>229</v>
+      </c>
+      <c r="L35" t="s">
+        <v>289</v>
       </c>
       <c r="M35">
-        <v>34.9110939</v>
-      </c>
-      <c r="N35" t="s">
-        <v>246</v>
+        <v>32.067256499999999</v>
+      </c>
+      <c r="N35">
+        <v>34.911093899999997</v>
       </c>
       <c r="O35" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="P35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>363</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2">
         <v>43355</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="K36" t="s">
-        <v>231</v>
-      </c>
-      <c r="L36">
-        <v>32.079233</v>
+        <v>230</v>
+      </c>
+      <c r="L36" t="s">
+        <v>290</v>
       </c>
       <c r="M36">
-        <v>34.825057</v>
-      </c>
-      <c r="N36" t="s">
-        <v>248</v>
+        <v>32.079233000000002</v>
+      </c>
+      <c r="N36">
+        <v>34.825057000000001</v>
       </c>
       <c r="O36" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="P36" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>364</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
         <v>43356</v>
       </c>
-      <c r="C37">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
+      <c r="D37">
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" t="s">
-        <v>89</v>
-      </c>
-      <c r="I37" t="s">
-        <v>134</v>
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s">
-        <v>232</v>
-      </c>
-      <c r="L37">
-        <v>32.090754</v>
+        <v>41</v>
+      </c>
+      <c r="L37" t="s">
+        <v>291</v>
       </c>
       <c r="M37">
-        <v>34.884491</v>
-      </c>
-      <c r="N37" t="s">
-        <v>247</v>
+        <v>31.948901200000002</v>
+      </c>
+      <c r="N37">
+        <v>34.888485699999997</v>
       </c>
       <c r="O37" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="P37" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>365</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2">
         <v>43356</v>
       </c>
-      <c r="C38">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
+      <c r="D38">
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" t="s">
-        <v>135</v>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>82</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="K38" t="s">
-        <v>233</v>
-      </c>
-      <c r="L38">
-        <v>31.9489012</v>
+        <v>231</v>
+      </c>
+      <c r="L38" t="s">
+        <v>292</v>
       </c>
       <c r="M38">
-        <v>34.8884857</v>
-      </c>
-      <c r="N38" t="s">
-        <v>246</v>
+        <v>32.090753999999997</v>
+      </c>
+      <c r="N38">
+        <v>34.884490999999997</v>
       </c>
       <c r="O38" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="P38" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>366</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2">
         <v>43358</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>14</v>
       </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>90</v>
-      </c>
-      <c r="I39" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="K39" t="s">
-        <v>234</v>
-      </c>
-      <c r="L39">
-        <v>31.666406</v>
+        <v>232</v>
+      </c>
+      <c r="L39" t="s">
+        <v>293</v>
       </c>
       <c r="M39">
-        <v>34.5648758</v>
-      </c>
-      <c r="N39" t="s">
-        <v>246</v>
+        <v>31.666405999999998</v>
+      </c>
+      <c r="N39">
+        <v>34.564875800000003</v>
       </c>
       <c r="O39" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="P39" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>367</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2">
         <v>43359</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>15</v>
       </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="K40" t="s">
-        <v>235</v>
-      </c>
-      <c r="L40">
-        <v>31.7848825</v>
+        <v>233</v>
+      </c>
+      <c r="L40" t="s">
+        <v>294</v>
       </c>
       <c r="M40">
-        <v>34.6414328</v>
-      </c>
-      <c r="N40" t="s">
-        <v>246</v>
+        <v>31.784882499999998</v>
+      </c>
+      <c r="N40">
+        <v>34.641432799999997</v>
       </c>
       <c r="O40" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="P40" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>368</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2">
         <v>43359</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>17</v>
       </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="K41" t="s">
-        <v>235</v>
-      </c>
-      <c r="L41">
-        <v>31.7848825</v>
+        <v>233</v>
+      </c>
+      <c r="L41" t="s">
+        <v>294</v>
       </c>
       <c r="M41">
-        <v>34.6414328</v>
-      </c>
-      <c r="N41" t="s">
-        <v>246</v>
+        <v>31.784882499999998</v>
+      </c>
+      <c r="N41">
+        <v>34.641432799999997</v>
       </c>
       <c r="O41" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="P41" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>368</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2">
         <v>43359</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>14</v>
       </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>92</v>
-      </c>
-      <c r="I42" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="K42" t="s">
-        <v>236</v>
-      </c>
-      <c r="L42">
+        <v>234</v>
+      </c>
+      <c r="L42" t="s">
+        <v>295</v>
+      </c>
+      <c r="M42">
         <v>32.1026101</v>
       </c>
-      <c r="M42">
-        <v>34.863928</v>
-      </c>
-      <c r="N42" t="s">
-        <v>246</v>
+      <c r="N42">
+        <v>34.863928000000001</v>
       </c>
       <c r="O42" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="P42" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>369</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2">
         <v>43360</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>30</v>
       </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
-      </c>
-      <c r="I43" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="K43" t="s">
-        <v>236</v>
-      </c>
-      <c r="L43">
+        <v>234</v>
+      </c>
+      <c r="L43" t="s">
+        <v>295</v>
+      </c>
+      <c r="M43">
         <v>32.1026101</v>
       </c>
-      <c r="M43">
-        <v>34.863928</v>
-      </c>
-      <c r="N43" t="s">
-        <v>248</v>
+      <c r="N43">
+        <v>34.863928000000001</v>
       </c>
       <c r="O43" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="P43" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>369</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2">
         <v>43363</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>15</v>
       </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K44" t="s">
-        <v>235</v>
-      </c>
-      <c r="L44">
-        <v>31.7848825</v>
+        <v>233</v>
+      </c>
+      <c r="L44" t="s">
+        <v>294</v>
       </c>
       <c r="M44">
-        <v>34.6414328</v>
-      </c>
-      <c r="N44" t="s">
-        <v>246</v>
+        <v>31.784882499999998</v>
+      </c>
+      <c r="N44">
+        <v>34.641432799999997</v>
       </c>
       <c r="O44" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="P44" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>368</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2">
         <v>43365</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>11</v>
       </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>93</v>
-      </c>
-      <c r="I45" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K45" t="s">
-        <v>237</v>
-      </c>
-      <c r="L45">
-        <v>32.0489389</v>
+        <v>235</v>
+      </c>
+      <c r="L45" t="s">
+        <v>296</v>
       </c>
       <c r="M45">
-        <v>34.9652485</v>
-      </c>
-      <c r="N45" t="s">
-        <v>246</v>
+        <v>32.048938900000003</v>
+      </c>
+      <c r="N45">
+        <v>34.965248500000001</v>
       </c>
       <c r="O45" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="P45" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>370</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2">
         <v>43367</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>16</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>18</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>22</v>
       </c>
-      <c r="F46" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" t="s">
-        <v>140</v>
+      <c r="G46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" t="s">
+        <v>87</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K46" t="s">
-        <v>238</v>
-      </c>
-      <c r="L46">
-        <v>32.8638052</v>
+        <v>236</v>
+      </c>
+      <c r="L46" t="s">
+        <v>297</v>
       </c>
       <c r="M46">
-        <v>35.3023184</v>
-      </c>
-      <c r="N46" t="s">
-        <v>246</v>
+        <v>32.098629600000002</v>
+      </c>
+      <c r="N46">
+        <v>34.781170600000003</v>
       </c>
       <c r="O46" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="P46" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>371</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47" s="2">
         <v>43367</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>16</v>
       </c>
-      <c r="D47" t="s">
-        <v>17</v>
-      </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>35</v>
       </c>
       <c r="H47" t="s">
-        <v>94</v>
-      </c>
-      <c r="I47" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="K47" t="s">
-        <v>239</v>
-      </c>
-      <c r="L47">
-        <v>32.0986296</v>
+        <v>236</v>
+      </c>
+      <c r="L47" t="s">
+        <v>297</v>
       </c>
       <c r="M47">
-        <v>34.7811706</v>
-      </c>
-      <c r="N47" t="s">
-        <v>246</v>
+        <v>32.098629600000002</v>
+      </c>
+      <c r="N47">
+        <v>34.781170600000003</v>
       </c>
       <c r="O47" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="P47" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>371</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48" s="2">
         <v>43367</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>16</v>
       </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" t="s">
-        <v>94</v>
-      </c>
-      <c r="I48" t="s">
-        <v>141</v>
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>43</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="K48" t="s">
-        <v>239</v>
-      </c>
-      <c r="L48">
-        <v>32.0986296</v>
+        <v>43</v>
+      </c>
+      <c r="L48" t="s">
+        <v>298</v>
       </c>
       <c r="M48">
-        <v>34.7811706</v>
-      </c>
-      <c r="N48" t="s">
-        <v>246</v>
+        <v>32.863805200000002</v>
+      </c>
+      <c r="N48">
+        <v>35.302318399999997</v>
       </c>
       <c r="O48" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="P48" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>372</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2">
         <v>43370</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>17</v>
-      </c>
-      <c r="D49" t="s">
-        <v>20</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="K49" t="s">
-        <v>240</v>
-      </c>
-      <c r="L49">
-        <v>32.0224339</v>
+        <v>237</v>
+      </c>
+      <c r="L49" t="s">
+        <v>299</v>
       </c>
       <c r="M49">
-        <v>34.7454766</v>
-      </c>
-      <c r="N49" t="s">
-        <v>246</v>
+        <v>32.022433900000003</v>
+      </c>
+      <c r="N49">
+        <v>34.745476600000003</v>
       </c>
       <c r="O49" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="P49" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+        <v>373</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2">
         <v>43370</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>21</v>
       </c>
-      <c r="D50" t="s">
-        <v>18</v>
-      </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
       </c>
       <c r="H50" t="s">
-        <v>96</v>
-      </c>
-      <c r="I50" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="K50" t="s">
-        <v>241</v>
-      </c>
-      <c r="L50">
+        <v>238</v>
+      </c>
+      <c r="L50" t="s">
+        <v>300</v>
+      </c>
+      <c r="M50">
         <v>32.081032</v>
       </c>
-      <c r="M50">
-        <v>34.827542</v>
-      </c>
-      <c r="N50" t="s">
-        <v>248</v>
+      <c r="N50">
+        <v>34.827542000000001</v>
       </c>
       <c r="O50" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="P50" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>374</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2">
         <v>43371</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>30</v>
       </c>
-      <c r="D51" t="s">
-        <v>19</v>
-      </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>97</v>
-      </c>
-      <c r="I51" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="K51" t="s">
-        <v>212</v>
-      </c>
-      <c r="L51">
+        <v>239</v>
+      </c>
+      <c r="L51" t="s">
+        <v>271</v>
+      </c>
+      <c r="M51">
         <v>32</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>34</v>
       </c>
-      <c r="N51" t="s">
-        <v>248</v>
-      </c>
       <c r="O51" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="P51" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+        <v>375</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2">
         <v>43373</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>21</v>
       </c>
-      <c r="D52" t="s">
-        <v>19</v>
-      </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
       </c>
       <c r="H52" t="s">
-        <v>25</v>
-      </c>
-      <c r="I52" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="K52" t="s">
-        <v>242</v>
-      </c>
-      <c r="L52">
-        <v>31.9635712</v>
+        <v>240</v>
+      </c>
+      <c r="L52" t="s">
+        <v>301</v>
       </c>
       <c r="M52">
-        <v>34.8101149</v>
-      </c>
-      <c r="N52" t="s">
-        <v>248</v>
+        <v>31.963571200000001</v>
+      </c>
+      <c r="N52">
+        <v>34.810114900000002</v>
       </c>
       <c r="O52" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="P52" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+        <v>376</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2">
         <v>43375</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>35</v>
       </c>
-      <c r="D53" t="s">
-        <v>18</v>
-      </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>98</v>
-      </c>
-      <c r="I53" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="K53" t="s">
-        <v>243</v>
-      </c>
-      <c r="L53">
+        <v>241</v>
+      </c>
+      <c r="L53" t="s">
+        <v>302</v>
+      </c>
+      <c r="M53">
         <v>31.6549871</v>
       </c>
-      <c r="M53">
-        <v>34.584551</v>
-      </c>
-      <c r="N53" t="s">
-        <v>253</v>
+      <c r="N53">
+        <v>34.584550999999998</v>
       </c>
       <c r="O53" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="P53" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+        <v>377</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2">
         <v>43376</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>16</v>
       </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
-      </c>
-      <c r="I54" t="s">
-        <v>147</v>
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K54" t="s">
-        <v>244</v>
-      </c>
-      <c r="L54">
+        <v>46</v>
+      </c>
+      <c r="L54" t="s">
+        <v>303</v>
+      </c>
+      <c r="M54">
         <v>31.526474</v>
       </c>
-      <c r="M54">
-        <v>34.5969679</v>
-      </c>
-      <c r="N54" t="s">
-        <v>246</v>
+      <c r="N54">
+        <v>34.596967900000003</v>
       </c>
       <c r="O54" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="P54" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>378</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2">
         <v>43378</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>36</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" t="s">
+        <v>92</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K55" t="s">
+        <v>242</v>
+      </c>
+      <c r="L55" t="s">
+        <v>304</v>
+      </c>
+      <c r="M55">
+        <v>31.993147799999999</v>
+      </c>
+      <c r="N55">
+        <v>34.766665799999998</v>
+      </c>
+      <c r="O55" t="s">
+        <v>330</v>
+      </c>
+      <c r="P55" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2">
+        <v>43381</v>
+      </c>
+      <c r="D56">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56" t="s">
+        <v>121</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K56" t="s">
+        <v>243</v>
+      </c>
+      <c r="L56" t="s">
+        <v>305</v>
+      </c>
+      <c r="M56">
+        <v>31.785136000000001</v>
+      </c>
+      <c r="N56">
+        <v>34.663800999999999</v>
+      </c>
+      <c r="O56" t="s">
+        <v>325</v>
+      </c>
+      <c r="P56" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2">
+        <v>43381</v>
+      </c>
+      <c r="D57">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s">
+        <v>94</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K57" t="s">
+        <v>244</v>
+      </c>
+      <c r="L57" t="s">
+        <v>306</v>
+      </c>
+      <c r="M57">
+        <v>32.021065499999999</v>
+      </c>
+      <c r="N57">
+        <v>34.739349199999999</v>
+      </c>
+      <c r="O57" t="s">
+        <v>323</v>
+      </c>
+      <c r="P57" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2">
+        <v>43384</v>
+      </c>
+      <c r="D58">
+        <v>60</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" t="s">
+        <v>95</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K58" t="s">
+        <v>245</v>
+      </c>
+      <c r="L58" t="s">
+        <v>307</v>
+      </c>
+      <c r="M58">
+        <v>32.923926000000002</v>
+      </c>
+      <c r="N58">
+        <v>35.083185999999998</v>
+      </c>
+      <c r="O58" t="s">
+        <v>329</v>
+      </c>
+      <c r="P58" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2">
+        <v>43387</v>
+      </c>
+      <c r="D59">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>48</v>
+      </c>
+      <c r="H59" t="s">
+        <v>96</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K59" t="s">
+        <v>246</v>
+      </c>
+      <c r="L59" t="s">
+        <v>308</v>
+      </c>
+      <c r="M59">
+        <v>31.895253199999999</v>
+      </c>
+      <c r="N59">
+        <v>34.8105616</v>
+      </c>
+      <c r="O59" t="s">
+        <v>323</v>
+      </c>
+      <c r="P59" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2">
+        <v>43391</v>
+      </c>
+      <c r="D60">
+        <v>50</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>97</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K60" t="s">
+        <v>247</v>
+      </c>
+      <c r="L60" t="s">
+        <v>309</v>
+      </c>
+      <c r="M60">
+        <v>31.6587274</v>
+      </c>
+      <c r="N60">
+        <v>34.602642500000002</v>
+      </c>
+      <c r="O60" t="s">
+        <v>324</v>
+      </c>
+      <c r="P60" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2">
+        <v>43392</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="E61" t="s">
         <v>18</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>49</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K61" t="s">
+        <v>49</v>
+      </c>
+      <c r="L61" t="s">
+        <v>310</v>
+      </c>
+      <c r="M61">
+        <v>31.667825700000002</v>
+      </c>
+      <c r="N61">
+        <v>34.626819599999997</v>
+      </c>
+      <c r="O61" t="s">
+        <v>324</v>
+      </c>
+      <c r="P61" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" s="2">
+        <v>43393</v>
+      </c>
+      <c r="D62">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
         <v>21</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" t="s">
+        <v>122</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K62" t="s">
+        <v>248</v>
+      </c>
+      <c r="L62" t="s">
+        <v>311</v>
+      </c>
+      <c r="M62">
+        <v>31.798997100000001</v>
+      </c>
+      <c r="N62">
+        <v>34.6451846</v>
+      </c>
+      <c r="O62" t="s">
+        <v>323</v>
+      </c>
+      <c r="P62" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2">
+        <v>43398</v>
+      </c>
+      <c r="D63">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>50</v>
+      </c>
+      <c r="I63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K63" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" t="s">
+        <v>312</v>
+      </c>
+      <c r="M63">
+        <v>32.5032833</v>
+      </c>
+      <c r="N63">
+        <v>35.290251499999997</v>
+      </c>
+      <c r="O63" t="s">
+        <v>323</v>
+      </c>
+      <c r="P63" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" s="2">
+        <v>43402</v>
+      </c>
+      <c r="D64">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I64" t="s">
+        <v>124</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K64" t="s">
+        <v>249</v>
+      </c>
+      <c r="L64" t="s">
+        <v>313</v>
+      </c>
+      <c r="M64">
+        <v>31.808852000000002</v>
+      </c>
+      <c r="N64">
+        <v>35.233418</v>
+      </c>
+      <c r="O64" t="s">
+        <v>323</v>
+      </c>
+      <c r="P64" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" s="2">
+        <v>43402</v>
+      </c>
+      <c r="D65">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s">
+        <v>99</v>
+      </c>
+      <c r="I65" t="s">
+        <v>124</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K65" t="s">
+        <v>249</v>
+      </c>
+      <c r="L65" t="s">
+        <v>313</v>
+      </c>
+      <c r="M65">
+        <v>31.808852000000002</v>
+      </c>
+      <c r="N65">
+        <v>35.233418</v>
+      </c>
+      <c r="O65" t="s">
+        <v>323</v>
+      </c>
+      <c r="P65" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2">
+        <v>43402</v>
+      </c>
+      <c r="D66">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I66" t="s">
+        <v>124</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K66" t="s">
+        <v>249</v>
+      </c>
+      <c r="L66" t="s">
+        <v>313</v>
+      </c>
+      <c r="M66">
+        <v>31.808852000000002</v>
+      </c>
+      <c r="N66">
+        <v>35.233418</v>
+      </c>
+      <c r="O66" t="s">
+        <v>323</v>
+      </c>
+      <c r="P66" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" s="2">
+        <v>43403</v>
+      </c>
+      <c r="D67">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s">
+        <v>94</v>
+      </c>
+      <c r="J67" t="s">
+        <v>406</v>
+      </c>
+      <c r="K67" t="s">
+        <v>244</v>
+      </c>
+      <c r="L67" t="s">
+        <v>306</v>
+      </c>
+      <c r="M67">
+        <v>32.021065499999999</v>
+      </c>
+      <c r="N67">
+        <v>34.739349199999999</v>
+      </c>
+      <c r="O67" t="s">
+        <v>323</v>
+      </c>
+      <c r="P67" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68" s="2">
+        <v>43404</v>
+      </c>
+      <c r="D68">
+        <v>40</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>51</v>
+      </c>
+      <c r="H68" t="s">
+        <v>100</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K68" t="s">
+        <v>250</v>
+      </c>
+      <c r="L68" t="s">
+        <v>314</v>
+      </c>
+      <c r="M68">
+        <v>32.3286181</v>
+      </c>
+      <c r="N68">
+        <v>34.856624600000004</v>
+      </c>
+      <c r="O68" t="s">
+        <v>330</v>
+      </c>
+      <c r="P68" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69" s="2">
+        <v>43404</v>
+      </c>
+      <c r="D69">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" t="s">
+        <v>101</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K69" t="s">
+        <v>251</v>
+      </c>
+      <c r="L69" t="s">
+        <v>315</v>
+      </c>
+      <c r="M69">
+        <v>32.078985799999998</v>
+      </c>
+      <c r="N69">
+        <v>34.875826199999999</v>
+      </c>
+      <c r="O69" t="s">
+        <v>323</v>
+      </c>
+      <c r="P69" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2">
+        <v>43408</v>
+      </c>
+      <c r="D70">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" t="s">
+        <v>102</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K70" t="s">
+        <v>252</v>
+      </c>
+      <c r="L70" t="s">
+        <v>316</v>
+      </c>
+      <c r="M70">
+        <v>31.7974706</v>
+      </c>
+      <c r="N70">
+        <v>34.651231500000002</v>
+      </c>
+      <c r="O70" t="s">
+        <v>323</v>
+      </c>
+      <c r="P70" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D71">
+        <v>60</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" t="s">
+        <v>125</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K71" t="s">
+        <v>52</v>
+      </c>
+      <c r="L71" t="s">
+        <v>317</v>
+      </c>
+      <c r="M71">
+        <v>32.098088599999997</v>
+      </c>
+      <c r="N71">
+        <v>34.921146899999997</v>
+      </c>
+      <c r="O71" t="s">
+        <v>329</v>
+      </c>
+      <c r="P71" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D72">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s">
+        <v>103</v>
+      </c>
+      <c r="I72" t="s">
+        <v>126</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K72" t="s">
+        <v>253</v>
+      </c>
+      <c r="L72" t="s">
+        <v>318</v>
+      </c>
+      <c r="M72">
+        <v>32.0203755</v>
+      </c>
+      <c r="N72">
+        <v>34.754472</v>
+      </c>
+      <c r="O72" t="s">
+        <v>323</v>
+      </c>
+      <c r="P72" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" s="2">
+        <v>43409</v>
+      </c>
+      <c r="D73">
+        <v>30</v>
+      </c>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" t="s">
+        <v>104</v>
+      </c>
+      <c r="I73" t="s">
+        <v>127</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K73" t="s">
+        <v>254</v>
+      </c>
+      <c r="L73" t="s">
+        <v>319</v>
+      </c>
+      <c r="M73">
+        <v>31.955487000000002</v>
+      </c>
+      <c r="N73">
+        <v>34.802301999999997</v>
+      </c>
+      <c r="O73" t="s">
+        <v>325</v>
+      </c>
+      <c r="P73" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2">
+        <v>43411</v>
+      </c>
+      <c r="D74">
+        <v>30</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" t="s">
+        <v>60</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K74" t="s">
+        <v>255</v>
+      </c>
+      <c r="L74" t="s">
+        <v>267</v>
+      </c>
+      <c r="M74">
+        <v>32.071886300000003</v>
+      </c>
+      <c r="N74">
+        <v>34.850952700000001</v>
+      </c>
+      <c r="O74" t="s">
+        <v>325</v>
+      </c>
+      <c r="P74" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2">
+        <v>43411</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" t="s">
+        <v>105</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K75" t="s">
+        <v>256</v>
+      </c>
+      <c r="L75" t="s">
+        <v>320</v>
+      </c>
+      <c r="M75">
+        <v>31.7905111</v>
+      </c>
+      <c r="N75">
+        <v>34.659407000000002</v>
+      </c>
+      <c r="O75" t="s">
+        <v>326</v>
+      </c>
+      <c r="P75" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" s="2">
+        <v>43412</v>
+      </c>
+      <c r="D76">
+        <v>55</v>
+      </c>
+      <c r="E76" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
         <v>28</v>
       </c>
-      <c r="H55" t="s">
-        <v>99</v>
-      </c>
-      <c r="I55" t="s">
-        <v>148</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K55" t="s">
-        <v>245</v>
-      </c>
-      <c r="L55">
-        <v>31.9931478</v>
-      </c>
-      <c r="M55">
-        <v>34.7666658</v>
-      </c>
-      <c r="N55" t="s">
-        <v>253</v>
-      </c>
-      <c r="O55" t="s">
-        <v>302</v>
-      </c>
-      <c r="P55" t="s">
-        <v>306</v>
+      <c r="H76" t="s">
+        <v>106</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K76" t="s">
+        <v>257</v>
+      </c>
+      <c r="L76" t="s">
+        <v>321</v>
+      </c>
+      <c r="M76">
+        <v>32.8006186</v>
+      </c>
+      <c r="N76">
+        <v>35.012795199999999</v>
+      </c>
+      <c r="O76" t="s">
+        <v>329</v>
+      </c>
+      <c r="P76" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" s="2">
+        <v>43413</v>
+      </c>
+      <c r="D77">
+        <v>37</v>
+      </c>
+      <c r="E77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" t="s">
+        <v>67</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K77" t="s">
+        <v>258</v>
+      </c>
+      <c r="L77" t="s">
+        <v>322</v>
+      </c>
+      <c r="M77">
+        <v>32.059707600000003</v>
+      </c>
+      <c r="N77">
+        <v>34.770622500000002</v>
+      </c>
+      <c r="O77" t="s">
+        <v>330</v>
+      </c>
+      <c r="P77" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
-    <hyperlink ref="J16" r:id="rId15"/>
-    <hyperlink ref="J17" r:id="rId16"/>
-    <hyperlink ref="J18" r:id="rId17"/>
-    <hyperlink ref="J19" r:id="rId18"/>
-    <hyperlink ref="J20" r:id="rId19"/>
-    <hyperlink ref="J21" r:id="rId20"/>
-    <hyperlink ref="J22" r:id="rId21"/>
-    <hyperlink ref="J23" r:id="rId22"/>
-    <hyperlink ref="J24" r:id="rId23"/>
-    <hyperlink ref="J25" r:id="rId24"/>
-    <hyperlink ref="J26" r:id="rId25"/>
-    <hyperlink ref="J27" r:id="rId26"/>
-    <hyperlink ref="J28" r:id="rId27"/>
-    <hyperlink ref="J29" r:id="rId28"/>
-    <hyperlink ref="J30" r:id="rId29"/>
-    <hyperlink ref="J31" r:id="rId30"/>
-    <hyperlink ref="J32" r:id="rId31"/>
-    <hyperlink ref="J33" r:id="rId32"/>
-    <hyperlink ref="J34" r:id="rId33"/>
-    <hyperlink ref="J35" r:id="rId34"/>
-    <hyperlink ref="J36" r:id="rId35"/>
-    <hyperlink ref="J37" r:id="rId36"/>
-    <hyperlink ref="J38" r:id="rId37"/>
-    <hyperlink ref="J39" r:id="rId38"/>
-    <hyperlink ref="J40" r:id="rId39"/>
-    <hyperlink ref="J41" r:id="rId40"/>
-    <hyperlink ref="J42" r:id="rId41"/>
-    <hyperlink ref="J43" r:id="rId42"/>
-    <hyperlink ref="J44" r:id="rId43"/>
-    <hyperlink ref="J45" r:id="rId44"/>
-    <hyperlink ref="J46" r:id="rId45"/>
-    <hyperlink ref="J47" r:id="rId46"/>
-    <hyperlink ref="J48" r:id="rId47"/>
-    <hyperlink ref="J49" r:id="rId48"/>
-    <hyperlink ref="J50" r:id="rId49"/>
-    <hyperlink ref="J51" r:id="rId50"/>
-    <hyperlink ref="J52" r:id="rId51"/>
-    <hyperlink ref="J53" r:id="rId52"/>
-    <hyperlink ref="J54" r:id="rId53"/>
-    <hyperlink ref="J55" r:id="rId54"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
